--- a/catalogos/CUESTIONARIO_PUB_PERSONAS.xlsx
+++ b/catalogos/CUESTIONARIO_PUB_PERSONAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALMARAMIREZ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DCEA2A-4346-4A45-B5F4-02274112732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4816201D-BC37-4F8A-BDC3-531C2149D6D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -167,9 +154,6 @@
     <t>¿Cómo puedo llenar o capturar estatus_curp?</t>
   </si>
   <si>
-    <t>curp Se captura Ejemplo: HESJ000229HJCRLN73</t>
-  </si>
-  <si>
     <t>primer_ap Se completa en automático o se captura Ejemplo: HERNANDEZ</t>
   </si>
   <si>
@@ -285,6 +269,9 @@
   </si>
   <si>
     <t>id_asen Puede estar vacío Ejemplo: 41 — revisar los catálogos descargables</t>
+  </si>
+  <si>
+    <t>CURP Se captura Ejemplo: HESJ000229HJCRLN73</t>
   </si>
 </sst>
 </file>
@@ -327,56 +314,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{363116E9-4462-4F87-AFB9-BA512F690376}"/>
   </tableStyles>
@@ -392,9 +330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -432,9 +370,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,9 +405,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,9 +457,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -681,16 +653,16 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -709,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -720,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -731,10 +703,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -742,10 +714,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -753,10 +725,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -764,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -775,10 +747,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -786,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -797,10 +769,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -808,10 +780,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -819,10 +791,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -830,10 +802,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -841,10 +813,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -852,10 +824,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -863,10 +835,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -874,10 +846,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -885,10 +857,10 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -896,10 +868,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -907,10 +879,10 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -918,10 +890,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -929,10 +901,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -940,10 +912,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -951,10 +923,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -962,10 +934,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -973,10 +945,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -984,10 +956,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -995,10 +967,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1006,10 +978,10 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1017,10 +989,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1028,10 +1000,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1039,10 +1011,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1050,10 +1022,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1061,10 +1033,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1072,10 +1044,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1083,10 +1055,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1094,10 +1066,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1105,10 +1077,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1116,10 +1088,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1127,10 +1099,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1138,12 +1110,12 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C41" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
+    <sortState ref="A2:C41">
       <sortCondition ref="A1:A41"/>
     </sortState>
   </autoFilter>
